--- a/data/dataset_clean_1.xlsx
+++ b/data/dataset_clean_1.xlsx
@@ -672,55 +672,35 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -874,55 +854,35 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1076,55 +1036,35 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1278,55 +1218,35 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1480,55 +1400,35 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1682,55 +1582,35 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1884,55 +1764,35 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -2086,55 +1946,35 @@
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -2288,55 +2128,35 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -2490,55 +2310,35 @@
       <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2692,55 +2492,35 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2894,55 +2674,35 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -3096,55 +2856,35 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -3298,55 +3038,35 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -3500,55 +3220,35 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -3702,55 +3402,35 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -3904,55 +3584,35 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -4106,55 +3766,35 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -4308,55 +3948,35 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -4510,55 +4130,35 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -4712,55 +4312,35 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -4914,55 +4494,35 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -5116,55 +4676,35 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -5318,55 +4858,35 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -5520,55 +5040,35 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -5722,55 +5222,35 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -5924,55 +5404,35 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
       </c>
       <c r="O28">
         <v>4</v>
@@ -6126,55 +5586,35 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -6328,55 +5768,35 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
       </c>
       <c r="O30">
         <v>4</v>
@@ -6530,55 +5950,35 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
       </c>
       <c r="O31">
         <v>3</v>
@@ -6732,55 +6132,35 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
       </c>
       <c r="O32">
         <v>2</v>
@@ -6934,55 +6314,35 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -7136,55 +6496,35 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
       </c>
       <c r="O34">
         <v>3</v>
@@ -7338,55 +6678,35 @@
       <c r="D35">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -7540,55 +6860,35 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
       </c>
       <c r="O36">
         <v>2</v>
@@ -7742,55 +7042,35 @@
       <c r="D37">
         <v>8</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
       </c>
       <c r="O37">
         <v>3</v>
@@ -7944,55 +7224,35 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
       </c>
       <c r="O38">
         <v>2</v>
@@ -8146,55 +7406,35 @@
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
       </c>
       <c r="O39">
         <v>2</v>
@@ -8348,55 +7588,35 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
       </c>
       <c r="O40">
         <v>2</v>
@@ -8550,55 +7770,35 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
       </c>
       <c r="O41">
         <v>2</v>
@@ -8752,55 +7952,35 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -8954,55 +8134,35 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
       </c>
       <c r="O43">
         <v>2</v>
@@ -9156,55 +8316,35 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -9358,55 +8498,35 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -9560,55 +8680,35 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
       </c>
       <c r="O46">
         <v>3</v>
@@ -9762,55 +8862,35 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
       </c>
       <c r="O47">
         <v>2</v>
@@ -9964,55 +9044,35 @@
       <c r="D48">
         <v>6</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
       </c>
       <c r="O48">
         <v>3</v>
@@ -10166,55 +9226,35 @@
       <c r="D49">
         <v>8</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
       </c>
       <c r="O49">
         <v>2</v>
@@ -10368,55 +9408,35 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
       </c>
       <c r="O50">
         <v>4</v>
@@ -10570,55 +9590,35 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -10772,55 +9772,35 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
       </c>
       <c r="O52">
         <v>3</v>
@@ -10974,55 +9954,35 @@
       <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -11176,55 +10136,35 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
       </c>
       <c r="O54">
         <v>2</v>
@@ -11378,55 +10318,35 @@
       <c r="D55">
         <v>4</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
       </c>
       <c r="O55">
         <v>2</v>
@@ -11580,55 +10500,35 @@
       <c r="D56">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
       </c>
       <c r="O56">
         <v>2</v>
@@ -11782,55 +10682,35 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -11984,55 +10864,35 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -12186,55 +11046,35 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
       </c>
       <c r="O59">
         <v>2</v>
@@ -12388,55 +11228,35 @@
       <c r="D60">
         <v>8</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -12590,55 +11410,35 @@
       <c r="D61">
         <v>8</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
       </c>
       <c r="O61">
         <v>2</v>
@@ -12792,55 +11592,35 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
       </c>
       <c r="O62">
         <v>4</v>
@@ -12994,55 +11774,35 @@
       <c r="D63">
         <v>7</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
       </c>
       <c r="O63">
         <v>3</v>
@@ -13196,55 +11956,35 @@
       <c r="D64">
         <v>7</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
       </c>
       <c r="O64">
         <v>2</v>
@@ -13398,55 +12138,35 @@
       <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -13600,55 +12320,35 @@
       <c r="D66">
         <v>6</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
       </c>
       <c r="O66">
         <v>3</v>
@@ -13802,55 +12502,35 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
       </c>
       <c r="O67">
         <v>1</v>
